--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF87F3-7256-4AC4-A2AB-59DC697C0119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387E811-4E6B-479F-83C9-1349C7C8C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Language</t>
   </si>
@@ -81,9 +81,6 @@
     <t>cx_Oracle</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Worst</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB175DB-3DEB-4865-9706-76DAF502542F}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,13 +524,13 @@
     <col min="3" max="3" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="7"/>
+    <col min="6" max="7" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -535,29 +538,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -568,14 +574,15 @@
       <c r="D2" s="16"/>
       <c r="E2" s="3"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -586,14 +593,15 @@
       <c r="D3" s="16"/>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -604,14 +612,15 @@
       <c r="D4" s="16"/>
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,14 +631,15 @@
       <c r="D5" s="16"/>
       <c r="E5" s="3"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -643,23 +653,26 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="13">
-        <v>17359107800</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>4997</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6516</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -670,14 +683,15 @@
       <c r="D7" s="16"/>
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -688,14 +702,15 @@
       <c r="D8" s="16"/>
       <c r="E8" s="3"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -706,464 +721,497 @@
       <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="16"/>
       <c r="E13" s="3"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="16"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="16"/>
       <c r="E15" s="3"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="16"/>
       <c r="E16" s="3"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="16"/>
       <c r="E17" s="3"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
       <c r="D18" s="16"/>
       <c r="E18" s="3"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="16"/>
       <c r="E19" s="3"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
       <c r="D20" s="16"/>
       <c r="E20" s="3"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="16"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
       <c r="D22" s="16"/>
       <c r="E22" s="3"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="16"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="16"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="16"/>
       <c r="E25" s="3"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="16"/>
       <c r="E26" s="3"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="16"/>
       <c r="E27" s="3"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
       <c r="D28" s="16"/>
       <c r="E28" s="3"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="16"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="16"/>
       <c r="E30" s="3"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
       <c r="D31" s="16"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
       <c r="D32" s="16"/>
       <c r="E32" s="3"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
       <c r="D33" s="16"/>
       <c r="E33" s="3"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
       <c r="D34" s="16"/>
       <c r="E34" s="3"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
       <c r="D35" s="16"/>
       <c r="E35" s="3"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
       <c r="D36" s="16"/>
       <c r="E36" s="3"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
       <c r="D37" s="16"/>
       <c r="E37" s="3"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
       <c r="D38" s="16"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="16"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
       <c r="D40" s="16"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="16"/>
       <c r="E41" s="3"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F41" xr:uid="{4FB175DB-3DEB-4865-9706-76DAF502542F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M41">
     <sortCondition ref="A2:A41"/>
     <sortCondition ref="B2:B41"/>
     <sortCondition ref="C2:C41"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6387E811-4E6B-479F-83C9-1349C7C8C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3B066-384C-42BF-940C-8BF1B0A0B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Language</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Worst</t>
+  </si>
+  <si>
+    <t>Implementation of the Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -698,13 +701,27 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13">
+        <v>5110</v>
+      </c>
+      <c r="G8" s="13">
+        <v>6381</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -712,26 +729,44 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13">
+        <v>5110</v>
+      </c>
+      <c r="G9" s="13">
+        <v>6381</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3B066-384C-42BF-940C-8BF1B0A0B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B76366-9A6D-4144-A8B6-E49BF2CB5F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Language</t>
   </si>
@@ -102,13 +102,16 @@
     <t>ok</t>
   </si>
   <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Worst</t>
-  </si>
-  <si>
-    <t>Implementation of the Design Pattern</t>
+    <t>Documentation of the Design Pattern</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB175DB-3DEB-4865-9706-76DAF502542F}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +531,13 @@
     <col min="4" max="4" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="7"/>
+    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -550,23 +554,26 @@
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -578,14 +585,15 @@
       <c r="E2" s="3"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -597,14 +605,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -616,14 +625,15 @@
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -635,14 +645,15 @@
       <c r="E5" s="3"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,45 +675,61 @@
       <c r="G6" s="13">
         <v>6516</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44455</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4997</v>
+      </c>
+      <c r="G7" s="13">
+        <v>7330</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -711,31 +738,32 @@
         <v>23</v>
       </c>
       <c r="F8" s="13">
-        <v>5110</v>
+        <v>5039</v>
       </c>
       <c r="G8" s="13">
-        <v>6381</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>8448</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5947</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D9" s="16">
         <v>2</v>
@@ -744,132 +772,246 @@
         <v>23</v>
       </c>
       <c r="F9" s="13">
-        <v>5110</v>
+        <v>5048</v>
       </c>
       <c r="G9" s="13">
-        <v>6381</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>7769</v>
+      </c>
+      <c r="H9" s="13">
+        <v>5835</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5110</v>
+      </c>
+      <c r="G11" s="13">
+        <v>6381</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44453</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5110</v>
+      </c>
+      <c r="G12" s="13">
+        <v>6381</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44455</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="13">
+        <v>4911</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7680</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="13">
+        <v>5105</v>
+      </c>
+      <c r="G14" s="13">
+        <v>7627</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6210</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="13">
+        <v>5235</v>
+      </c>
+      <c r="G15" s="13">
+        <v>8298</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6498</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44455</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="13">
+        <v>5361</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7886</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
@@ -877,14 +1019,15 @@
       <c r="E17" s="3"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
@@ -892,14 +1035,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
@@ -907,14 +1051,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
@@ -922,14 +1067,15 @@
       <c r="E20" s="3"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
@@ -937,14 +1083,15 @@
       <c r="E21" s="3"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
@@ -952,14 +1099,15 @@
       <c r="E22" s="3"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
@@ -967,14 +1115,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
@@ -982,14 +1131,15 @@
       <c r="E24" s="3"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
@@ -997,14 +1147,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
@@ -1012,14 +1163,15 @@
       <c r="E26" s="3"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
@@ -1027,14 +1179,15 @@
       <c r="E27" s="3"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
@@ -1042,14 +1195,15 @@
       <c r="E28" s="3"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
@@ -1057,14 +1211,15 @@
       <c r="E29" s="3"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
@@ -1072,14 +1227,15 @@
       <c r="E30" s="3"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
@@ -1087,14 +1243,15 @@
       <c r="E31" s="3"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
@@ -1102,14 +1259,15 @@
       <c r="E32" s="3"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
@@ -1117,14 +1275,15 @@
       <c r="E33" s="3"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
@@ -1132,14 +1291,15 @@
       <c r="E34" s="3"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
@@ -1147,14 +1307,15 @@
       <c r="E35" s="3"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
@@ -1162,14 +1323,15 @@
       <c r="E36" s="3"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
@@ -1177,14 +1339,15 @@
       <c r="E37" s="3"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
@@ -1192,14 +1355,15 @@
       <c r="E38" s="3"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
@@ -1207,14 +1371,15 @@
       <c r="E39" s="3"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
@@ -1222,14 +1387,15 @@
       <c r="E40" s="3"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
@@ -1237,16 +1403,17 @@
       <c r="E41" s="3"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F41" xr:uid="{4FB175DB-3DEB-4865-9706-76DAF502542F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N41">
     <sortCondition ref="A2:A41"/>
     <sortCondition ref="B2:B41"/>
     <sortCondition ref="C2:C41"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B76366-9A6D-4144-A8B6-E49BF2CB5F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B104AF9-7654-4397-A5C6-029D0101EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Language</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,8 @@
     <col min="3" max="3" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1012,15 +1013,33 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="13">
+        <v>7124</v>
+      </c>
+      <c r="G17" s="13">
+        <v>9491</v>
+      </c>
+      <c r="H17" s="13">
+        <v>8552</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1028,15 +1047,33 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="13">
+        <v>7820</v>
+      </c>
+      <c r="G18" s="13">
+        <v>14532</v>
+      </c>
+      <c r="H18" s="13">
+        <v>10332</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B104AF9-7654-4397-A5C6-029D0101EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059E136-7EA1-4514-9170-C7CBABF9093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>Language</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,13 +641,27 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3259</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7187</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5372</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -656,33 +670,33 @@
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="13">
-        <v>4997</v>
+        <v>4511</v>
       </c>
       <c r="G6" s="13">
-        <v>6516</v>
-      </c>
-      <c r="H6" s="13"/>
+        <v>5262</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4821</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -696,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="8">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -708,14 +722,14 @@
         <v>4997</v>
       </c>
       <c r="G7" s="13">
-        <v>7330</v>
+        <v>6516</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -730,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -739,18 +753,18 @@
         <v>23</v>
       </c>
       <c r="F8" s="13">
-        <v>5039</v>
+        <v>4997</v>
       </c>
       <c r="G8" s="13">
-        <v>8448</v>
-      </c>
-      <c r="H8" s="13">
-        <v>5947</v>
-      </c>
+        <v>7330</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -767,19 +781,19 @@
         <v>44456</v>
       </c>
       <c r="D9" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="13">
-        <v>5048</v>
+        <v>5039</v>
       </c>
       <c r="G9" s="13">
-        <v>7769</v>
+        <v>8448</v>
       </c>
       <c r="H9" s="13">
-        <v>5835</v>
+        <v>5947</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
@@ -792,18 +806,32 @@
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5048</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7769</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5835</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -812,33 +840,19 @@
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="13">
-        <v>5110</v>
-      </c>
-      <c r="G11" s="13">
-        <v>6381</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -855,7 +869,7 @@
         <v>44453</v>
       </c>
       <c r="D12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -871,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -886,19 +900,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="8">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="D13" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="13">
-        <v>4911</v>
+        <v>5110</v>
       </c>
       <c r="G13" s="13">
-        <v>7680</v>
+        <v>6381</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="3" t="s">
@@ -920,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
@@ -929,18 +943,18 @@
         <v>23</v>
       </c>
       <c r="F14" s="13">
-        <v>5105</v>
+        <v>4911</v>
       </c>
       <c r="G14" s="13">
-        <v>7627</v>
-      </c>
-      <c r="H14" s="13">
-        <v>6210</v>
-      </c>
+        <v>7680</v>
+      </c>
+      <c r="H14" s="13"/>
       <c r="I14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -957,19 +971,19 @@
         <v>44456</v>
       </c>
       <c r="D15" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="13">
-        <v>5235</v>
+        <v>5105</v>
       </c>
       <c r="G15" s="13">
-        <v>8298</v>
+        <v>7627</v>
       </c>
       <c r="H15" s="13">
-        <v>6498</v>
+        <v>6210</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>21</v>
@@ -982,27 +996,29 @@
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="D16" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="13">
-        <v>5361</v>
+        <v>5235</v>
       </c>
       <c r="G16" s="13">
-        <v>7886</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>8298</v>
+      </c>
+      <c r="H16" s="13">
+        <v>6498</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -1029,14 +1045,12 @@
         <v>23</v>
       </c>
       <c r="F17" s="13">
-        <v>7124</v>
+        <v>5361</v>
       </c>
       <c r="G17" s="13">
-        <v>9491</v>
-      </c>
-      <c r="H17" s="13">
-        <v>8552</v>
-      </c>
+        <v>7886</v>
+      </c>
+      <c r="H17" s="13"/>
       <c r="I17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1057,19 +1071,19 @@
         <v>44456</v>
       </c>
       <c r="D18" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="13">
-        <v>7820</v>
+        <v>7124</v>
       </c>
       <c r="G18" s="13">
-        <v>14532</v>
+        <v>9491</v>
       </c>
       <c r="H18" s="13">
-        <v>10332</v>
+        <v>8552</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>21</v>
@@ -1081,15 +1095,33 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="13">
+        <v>7820</v>
+      </c>
+      <c r="G19" s="13">
+        <v>14532</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10332</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2059E136-7EA1-4514-9170-C7CBABF9093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B47A5-C69F-4302-91AD-434D37FECB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Language</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,33 +704,33 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D7" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="13">
-        <v>4997</v>
+        <v>3275</v>
       </c>
       <c r="G7" s="13">
-        <v>6516</v>
-      </c>
-      <c r="H7" s="13"/>
+        <v>7063</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5964</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -756,14 +756,14 @@
         <v>4997</v>
       </c>
       <c r="G8" s="13">
-        <v>7330</v>
+        <v>6516</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -787,18 +787,18 @@
         <v>23</v>
       </c>
       <c r="F9" s="13">
-        <v>5039</v>
+        <v>4997</v>
       </c>
       <c r="G9" s="13">
-        <v>8448</v>
-      </c>
-      <c r="H9" s="13">
-        <v>5947</v>
-      </c>
+        <v>7330</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -815,19 +815,19 @@
         <v>44456</v>
       </c>
       <c r="D10" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="13">
-        <v>5048</v>
+        <v>5039</v>
       </c>
       <c r="G10" s="13">
-        <v>7769</v>
+        <v>8448</v>
       </c>
       <c r="H10" s="13">
-        <v>5835</v>
+        <v>5947</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>21</v>
@@ -840,18 +840,32 @@
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="13">
+        <v>5048</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7769</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5835</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -860,33 +874,19 @@
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>44453</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="13">
-        <v>5110</v>
-      </c>
-      <c r="G12" s="13">
-        <v>6381</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -903,7 +903,7 @@
         <v>44453</v>
       </c>
       <c r="D13" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -919,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -934,19 +934,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="8">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="13">
-        <v>4911</v>
+        <v>5110</v>
       </c>
       <c r="G14" s="13">
-        <v>7680</v>
+        <v>6381</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="3" t="s">
@@ -968,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
@@ -977,18 +977,18 @@
         <v>23</v>
       </c>
       <c r="F15" s="13">
-        <v>5105</v>
+        <v>4911</v>
       </c>
       <c r="G15" s="13">
-        <v>7627</v>
-      </c>
-      <c r="H15" s="13">
-        <v>6210</v>
-      </c>
+        <v>7680</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1005,19 +1005,19 @@
         <v>44456</v>
       </c>
       <c r="D16" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="13">
-        <v>5235</v>
+        <v>5105</v>
       </c>
       <c r="G16" s="13">
-        <v>8298</v>
+        <v>7627</v>
       </c>
       <c r="H16" s="13">
-        <v>6498</v>
+        <v>6210</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>21</v>
@@ -1030,27 +1030,29 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="D17" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="13">
-        <v>5361</v>
+        <v>5235</v>
       </c>
       <c r="G17" s="13">
-        <v>7886</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>8298</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6498</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="8">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -1077,14 +1079,12 @@
         <v>23</v>
       </c>
       <c r="F18" s="13">
-        <v>7124</v>
+        <v>5361</v>
       </c>
       <c r="G18" s="13">
-        <v>9491</v>
-      </c>
-      <c r="H18" s="13">
-        <v>8552</v>
-      </c>
+        <v>7886</v>
+      </c>
+      <c r="H18" s="13"/>
       <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1105,19 +1105,19 @@
         <v>44456</v>
       </c>
       <c r="D19" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="13">
-        <v>7820</v>
+        <v>7124</v>
       </c>
       <c r="G19" s="13">
-        <v>14532</v>
+        <v>9491</v>
       </c>
       <c r="H19" s="13">
-        <v>10332</v>
+        <v>8552</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>21</v>
@@ -1129,15 +1129,33 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44456</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="13">
+        <v>7820</v>
+      </c>
+      <c r="G20" s="13">
+        <v>14532</v>
+      </c>
+      <c r="H20" s="13">
+        <v>10332</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B47A5-C69F-4302-91AD-434D37FECB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6CAB93-8C43-470D-B8B2-1B7B63156514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
   <si>
     <t>Language</t>
   </si>
@@ -112,6 +113,39 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>batch.sz</t>
+  </si>
+  <si>
+    <t>trans.sz</t>
+  </si>
+  <si>
+    <t>min.</t>
+  </si>
+  <si>
+    <t>max.</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>core.mlt</t>
+  </si>
+  <si>
+    <t>JDBC.jl</t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>Oracle.jl</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -121,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +177,44 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +227,27 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,10 +258,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,8 +298,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,10 +640,790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192CCCE-8A84-4ABC-BAEB-FE6F2C6D1859}">
+  <dimension ref="A1:AG15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+    </row>
+    <row r="2" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+    </row>
+    <row r="3" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>512</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>0</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
+        <v>512</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>512</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>512</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>512</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>512</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>512</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26">
+        <v>1719</v>
+      </c>
+      <c r="N13" s="26">
+        <v>1897</v>
+      </c>
+      <c r="O13" s="26">
+        <v>1797</v>
+      </c>
+      <c r="P13" s="25">
+        <v>2006</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>2861</v>
+      </c>
+      <c r="R13" s="25">
+        <v>2143</v>
+      </c>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="25">
+        <v>2913</v>
+      </c>
+      <c r="W13" s="25">
+        <v>3938</v>
+      </c>
+      <c r="X13" s="25">
+        <v>3112</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>1977</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>2223</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>2055</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>2237</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>2340</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>2280</v>
+      </c>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>512</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>512</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>512</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB1:AD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB175DB-3DEB-4865-9706-76DAF502542F}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/priv/OraBench_Status.xlsx
+++ b/priv/OraBench_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6CAB93-8C43-470D-B8B2-1B7B63156514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA0BBD3-4078-4472-8802-D38AA618539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>Language</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +208,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,12 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -262,10 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,37 +324,45 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,778 +675,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192CCCE-8A84-4ABC-BAEB-FE6F2C6D1859}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="29" t="s">
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="28" t="s">
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="29" t="s">
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-    </row>
-    <row r="2" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+    </row>
+    <row r="2" spans="1:43" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="28" t="s">
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29" t="s">
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="28" t="s">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29" t="s">
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="28" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-    </row>
-    <row r="3" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="34"/>
+    </row>
+    <row r="3" spans="1:43" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="M3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="N3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="O3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="Q3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="R3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="S3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="U3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="V3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="W3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="Y3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="Z3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AA3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="AC3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="AD3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="AE3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AG3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AH3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AI3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AK3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AL3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AM3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AO3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AP3" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="AQ3" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>0</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="29">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="29">
         <v>0</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+    </row>
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>0</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="29">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="29">
         <v>512</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>0</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+    </row>
+    <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>0</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="28">
         <v>1</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="28">
         <v>512</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+    </row>
+    <row r="8" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="29">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="29">
         <v>0</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+    </row>
+    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="29">
         <v>0</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="29">
         <v>512</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+    </row>
+    <row r="10" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="28">
         <v>0</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+    </row>
+    <row r="11" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>1</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="28">
         <v>1</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="28">
         <v>512</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+    </row>
+    <row r="12" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>512</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="29">
         <v>0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="29">
         <v>0</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>512</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="29">
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="29">
         <v>512</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26">
-        <v>1719</v>
-      </c>
-      <c r="N13" s="26">
-        <v>1897</v>
-      </c>
-      <c r="O13" s="26">
-        <v>1797</v>
-      </c>
-      <c r="P13" s="25">
-        <v>2006</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>2861</v>
-      </c>
-      <c r="R13" s="25">
-        <v>2143</v>
-      </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="25">
-        <v>2913</v>
-      </c>
-      <c r="W13" s="25">
-        <v>3938</v>
-      </c>
-      <c r="X13" s="25">
-        <v>3112</v>
-      </c>
-      <c r="Y13" s="27">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21">
+        <v>2286</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2504</v>
+      </c>
+      <c r="J13" s="21">
+        <v>2379</v>
+      </c>
+      <c r="K13" s="21">
+        <v>28488</v>
+      </c>
+      <c r="L13" s="19">
         <v>1977</v>
       </c>
-      <c r="Z13" s="27">
-        <v>2223</v>
-      </c>
-      <c r="AA13" s="27">
-        <v>2055</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>2237</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>2340</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>2280</v>
-      </c>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="M13" s="19">
+        <v>4706</v>
+      </c>
+      <c r="N13" s="19">
+        <v>2583</v>
+      </c>
+      <c r="O13" s="19">
+        <v>126722</v>
+      </c>
+      <c r="P13" s="21">
+        <v>1498</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>1743</v>
+      </c>
+      <c r="R13" s="21">
+        <v>1672</v>
+      </c>
+      <c r="S13" s="21">
+        <v>16815</v>
+      </c>
+      <c r="T13" s="20">
+        <v>1939</v>
+      </c>
+      <c r="U13" s="20">
+        <v>2438</v>
+      </c>
+      <c r="V13" s="20">
+        <v>2051</v>
+      </c>
+      <c r="W13" s="20">
+        <v>21733</v>
+      </c>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="20">
+        <v>3098</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>4168</v>
+      </c>
+      <c r="AD13" s="20">
+        <v>3272</v>
+      </c>
+      <c r="AE13" s="20">
+        <v>50290</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>1908</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>2124</v>
+      </c>
+      <c r="AH13" s="22">
+        <v>1964</v>
+      </c>
+      <c r="AI13" s="22">
+        <v>20677</v>
+      </c>
+      <c r="AJ13" s="20">
+        <v>2097</v>
+      </c>
+      <c r="AK13" s="20">
+        <v>2354</v>
+      </c>
+      <c r="AL13" s="20">
+        <v>2184</v>
+      </c>
+      <c r="AM13" s="20">
+        <v>23125</v>
+      </c>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <v>512</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>512</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="28">
         <v>512</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+    </row>
+    <row r="17" spans="15:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="23" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
